--- a/scripts/retrain_xlsx_report.xlsx
+++ b/scripts/retrain_xlsx_report.xlsx
@@ -15,9 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="19">
   <si>
-    <t>Epoch=30</t>
+    <t>Epoch=30 (Type 1)</t>
+  </si>
+  <si>
+    <t>Epoch=10 (Type 2)</t>
   </si>
   <si>
     <t>fgsm adv samples</t>
@@ -416,13 +419,16 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -432,7 +438,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -442,7 +448,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -452,145 +458,145 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27">
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W3" s="1"/>
       <c r="X3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -672,6 +678,9 @@
       <c r="Z5">
         <v>59.6640625</v>
       </c>
+      <c r="AA5">
+        <v>58.25000190734863</v>
+      </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6">
@@ -752,6 +761,9 @@
       <c r="Z6">
         <v>53.6640625</v>
       </c>
+      <c r="AA6">
+        <v>52.25000190734863</v>
+      </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7">
@@ -832,6 +844,9 @@
       <c r="Z7">
         <v>49.0234375</v>
       </c>
+      <c r="AA7">
+        <v>47.75000214576721</v>
+      </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8">
@@ -912,6 +927,9 @@
       <c r="Z8">
         <v>42.82812499999999</v>
       </c>
+      <c r="AA8">
+        <v>42.00000190734863</v>
+      </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9">
@@ -992,6 +1010,9 @@
       <c r="Z9">
         <v>37.66406249999999</v>
       </c>
+      <c r="AA9">
+        <v>35.75000238418578</v>
+      </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10">
@@ -1072,6 +1093,9 @@
       <c r="Z10">
         <v>31.21875</v>
       </c>
+      <c r="AA10">
+        <v>29.50000238418579</v>
+      </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11">
@@ -1152,6 +1176,9 @@
       <c r="Z11">
         <v>24.9140625</v>
       </c>
+      <c r="AA11">
+        <v>23.25000214576721</v>
+      </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12">
@@ -1232,6 +1259,9 @@
       <c r="Z12">
         <v>17.9140625</v>
       </c>
+      <c r="AA12">
+        <v>16.25000214576721</v>
+      </c>
     </row>
     <row r="13" spans="1:27">
       <c r="A13">
@@ -1312,6 +1342,9 @@
       <c r="Z13">
         <v>12.3046875</v>
       </c>
+      <c r="AA13">
+        <v>10.25000214576721</v>
+      </c>
     </row>
     <row r="14" spans="1:27">
       <c r="A14">
@@ -1392,6 +1425,9 @@
       <c r="Z14">
         <v>7.3046875</v>
       </c>
+      <c r="AA14">
+        <v>5.500001907348633</v>
+      </c>
     </row>
     <row r="15" spans="1:27">
       <c r="A15">
@@ -1400,41 +1436,80 @@
       <c r="B15">
         <v>0.1015625</v>
       </c>
+      <c r="C15">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="D15">
         <v>0.1015625</v>
       </c>
+      <c r="E15">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="F15">
         <v>0.4921875</v>
       </c>
+      <c r="G15">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="H15">
         <v>0.6875</v>
       </c>
+      <c r="I15">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="J15">
         <v>0.1015625</v>
       </c>
+      <c r="K15">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="L15">
         <v>1.2734375</v>
       </c>
+      <c r="M15">
+        <v>0.2500019073486328</v>
+      </c>
       <c r="N15">
         <v>1.2734375</v>
       </c>
+      <c r="O15">
+        <v>0.2500019073486328</v>
+      </c>
       <c r="P15">
         <v>1.2734375</v>
       </c>
+      <c r="Q15">
+        <v>0.2500019073486328</v>
+      </c>
       <c r="R15">
         <v>0.1015625</v>
       </c>
+      <c r="S15">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="T15">
         <v>0.1015625</v>
       </c>
+      <c r="U15">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="V15">
         <v>0.4921875</v>
       </c>
+      <c r="W15">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="X15">
         <v>0.6875</v>
       </c>
+      <c r="Y15">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="Z15">
         <v>1.6640625</v>
+      </c>
+      <c r="AA15">
+        <v>0.5000016689300537</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -1442,15 +1517,18 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1460,7 +1538,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1470,7 +1548,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -1480,145 +1558,145 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="1:27">
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W19" s="1"/>
       <c r="X19" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -1694,8 +1772,14 @@
       <c r="X21">
         <v>89.2890625</v>
       </c>
+      <c r="Y21">
+        <v>94.171875</v>
+      </c>
       <c r="Z21">
         <v>99.25</v>
+      </c>
+      <c r="AA21">
+        <v>52.24999713897705</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -1771,8 +1855,14 @@
       <c r="X22">
         <v>54.484375</v>
       </c>
+      <c r="Y22">
+        <v>84.3671875</v>
+      </c>
       <c r="Z22">
         <v>88.859375</v>
+      </c>
+      <c r="AA22">
+        <v>46.49999904632568</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -1848,8 +1938,14 @@
       <c r="X23">
         <v>43.921875</v>
       </c>
+      <c r="Y23">
+        <v>72.6328125</v>
+      </c>
       <c r="Z23">
         <v>79.859375</v>
+      </c>
+      <c r="AA23">
+        <v>38.49999809265137</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -1925,8 +2021,14 @@
       <c r="X24">
         <v>41.9296875</v>
       </c>
+      <c r="Y24">
+        <v>64.9765625</v>
+      </c>
       <c r="Z24">
         <v>69.2734375</v>
+      </c>
+      <c r="AA24">
+        <v>31.5000011920929</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -2002,8 +2104,14 @@
       <c r="X25">
         <v>34.2421875</v>
       </c>
+      <c r="Y25">
+        <v>52.9921875</v>
+      </c>
       <c r="Z25">
         <v>60.4140625</v>
+      </c>
+      <c r="AA25">
+        <v>25.74999785423279</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -2079,8 +2187,14 @@
       <c r="X26">
         <v>28.984375</v>
       </c>
+      <c r="Y26">
+        <v>41.09375</v>
+      </c>
       <c r="Z26">
         <v>50.6640625</v>
+      </c>
+      <c r="AA26">
+        <v>20.74999928474427</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -2156,8 +2270,14 @@
       <c r="X27">
         <v>25.1484375</v>
       </c>
+      <c r="Y27">
+        <v>36.8671875</v>
+      </c>
       <c r="Z27">
         <v>40.96875</v>
+      </c>
+      <c r="AA27">
+        <v>16.50000023841858</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -2233,8 +2353,14 @@
       <c r="X28">
         <v>27.59375</v>
       </c>
+      <c r="Y28">
+        <v>28.9609375</v>
+      </c>
       <c r="Z28">
         <v>31.109375</v>
+      </c>
+      <c r="AA28">
+        <v>12.75</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -2310,8 +2436,14 @@
       <c r="X29">
         <v>18.9609375</v>
       </c>
+      <c r="Y29">
+        <v>18.5703125</v>
+      </c>
       <c r="Z29">
         <v>21.109375</v>
+      </c>
+      <c r="AA29">
+        <v>7.500001430511475</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -2387,8 +2519,14 @@
       <c r="X30">
         <v>7.7578125</v>
       </c>
+      <c r="Y30">
+        <v>8.9296875</v>
+      </c>
       <c r="Z30">
         <v>11.859375</v>
+      </c>
+      <c r="AA30">
+        <v>4.500001430511475</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -2398,41 +2536,80 @@
       <c r="B31">
         <v>0.1015625</v>
       </c>
+      <c r="C31">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="D31">
         <v>0.1015625</v>
       </c>
+      <c r="E31">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="F31">
         <v>0.4921875</v>
       </c>
+      <c r="G31">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="H31">
         <v>0.6875</v>
       </c>
+      <c r="I31">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="J31">
         <v>0.1015625</v>
       </c>
+      <c r="K31">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="L31">
         <v>1.2734375</v>
       </c>
+      <c r="M31">
+        <v>0.2500019073486328</v>
+      </c>
       <c r="N31">
         <v>1.2734375</v>
       </c>
+      <c r="O31">
+        <v>0.2500019073486328</v>
+      </c>
       <c r="P31">
         <v>1.2734375</v>
       </c>
+      <c r="Q31">
+        <v>0.2500019073486328</v>
+      </c>
       <c r="R31">
         <v>0.1015625</v>
       </c>
+      <c r="S31">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="T31">
         <v>0.1015625</v>
       </c>
+      <c r="U31">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="V31">
         <v>0.4921875</v>
       </c>
+      <c r="W31">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="X31">
         <v>0.6875</v>
       </c>
+      <c r="Y31">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="Z31">
         <v>1.6640625</v>
+      </c>
+      <c r="AA31">
+        <v>0.5000016689300537</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -2440,15 +2617,18 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:27">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2458,7 +2638,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2468,7 +2648,7 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -2478,145 +2658,145 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="1:27">
       <c r="B35" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U35" s="1"/>
       <c r="V35" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W35" s="1"/>
       <c r="X35" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="1:27">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -2626,41 +2806,80 @@
       <c r="B37">
         <v>49.8046875</v>
       </c>
+      <c r="C37">
+        <v>43.9453125</v>
+      </c>
       <c r="D37">
         <v>49.8046875</v>
       </c>
+      <c r="E37">
+        <v>10.24999991059303</v>
+      </c>
       <c r="F37">
         <v>54.6875</v>
       </c>
+      <c r="G37">
+        <v>13.75000029802322</v>
+      </c>
       <c r="H37">
         <v>65.4296875</v>
       </c>
+      <c r="I37">
+        <v>34.99999940395355</v>
+      </c>
       <c r="J37">
         <v>49.8046875</v>
       </c>
+      <c r="K37">
+        <v>43.9453125</v>
+      </c>
       <c r="L37">
         <v>49.8046875</v>
       </c>
+      <c r="M37">
+        <v>10.24999991059303</v>
+      </c>
       <c r="N37">
         <v>54.6875</v>
       </c>
+      <c r="O37">
+        <v>13.75000029802322</v>
+      </c>
       <c r="P37">
         <v>65.4296875</v>
       </c>
+      <c r="Q37">
+        <v>34.99999940395355</v>
+      </c>
       <c r="R37">
         <v>77.1484375</v>
       </c>
+      <c r="S37">
+        <v>41.796875</v>
+      </c>
       <c r="T37">
         <v>78.90625</v>
       </c>
+      <c r="U37">
+        <v>34.99999940395355</v>
+      </c>
       <c r="V37">
         <v>82.8125</v>
       </c>
+      <c r="W37">
+        <v>38.49999904632568</v>
+      </c>
       <c r="X37">
         <v>83.3984375</v>
       </c>
+      <c r="Y37">
+        <v>39.25000131130219</v>
+      </c>
       <c r="Z37">
         <v>99.609375</v>
+      </c>
+      <c r="AA37">
+        <v>70.74999809265138</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -2670,41 +2889,80 @@
       <c r="B38">
         <v>21.640625</v>
       </c>
+      <c r="C38">
+        <v>28.4765625</v>
+      </c>
       <c r="D38">
         <v>52.6953125</v>
       </c>
+      <c r="E38">
+        <v>8.250000476837156</v>
+      </c>
       <c r="F38">
         <v>56.015625</v>
       </c>
+      <c r="G38">
+        <v>9.499999284744264</v>
+      </c>
       <c r="H38">
         <v>59.53125</v>
       </c>
+      <c r="I38">
+        <v>28.49999904632568</v>
+      </c>
       <c r="J38">
         <v>1.71875</v>
       </c>
+      <c r="K38">
+        <v>9.921875</v>
+      </c>
       <c r="L38">
         <v>24.1796875</v>
       </c>
+      <c r="M38">
+        <v>7.749999463558197</v>
+      </c>
       <c r="N38">
         <v>52.6953125</v>
       </c>
+      <c r="O38">
+        <v>8.250000476837156</v>
+      </c>
       <c r="P38">
         <v>59.53125</v>
       </c>
+      <c r="Q38">
+        <v>28.7499988079071</v>
+      </c>
       <c r="R38">
         <v>65.9765625</v>
       </c>
+      <c r="S38">
+        <v>34.3359375</v>
+      </c>
       <c r="T38">
         <v>69.296875</v>
       </c>
+      <c r="U38">
+        <v>28.99999856948853</v>
+      </c>
       <c r="V38">
         <v>71.4453125</v>
       </c>
+      <c r="W38">
+        <v>34.9999988079071</v>
+      </c>
       <c r="X38">
         <v>74.1796875</v>
       </c>
+      <c r="Y38">
+        <v>35.24999856948853</v>
+      </c>
       <c r="Z38">
         <v>89.609375</v>
+      </c>
+      <c r="AA38">
+        <v>63.25000166893005</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -2714,41 +2972,80 @@
       <c r="B39">
         <v>2.8203125</v>
       </c>
+      <c r="C39">
+        <v>19.2265625</v>
+      </c>
       <c r="D39">
         <v>37.78125</v>
       </c>
+      <c r="E39">
+        <v>4.749999463558197</v>
+      </c>
       <c r="F39">
         <v>38.171875</v>
       </c>
+      <c r="G39">
+        <v>5.000000715255737</v>
+      </c>
       <c r="H39">
         <v>52.234375</v>
       </c>
+      <c r="I39">
+        <v>24.25000023841858</v>
+      </c>
       <c r="J39">
         <v>0.8671875</v>
       </c>
+      <c r="K39">
+        <v>7.3125</v>
+      </c>
       <c r="L39">
         <v>19.8125</v>
       </c>
+      <c r="M39">
+        <v>2.999999642372132</v>
+      </c>
       <c r="N39">
         <v>44.8125</v>
       </c>
+      <c r="O39">
+        <v>7.500001311302185</v>
+      </c>
       <c r="P39">
         <v>44.8125</v>
       </c>
+      <c r="Q39">
+        <v>7.500001311302185</v>
+      </c>
       <c r="R39">
         <v>56.53125</v>
       </c>
+      <c r="S39">
+        <v>46.765625</v>
+      </c>
       <c r="T39">
         <v>60.2421875</v>
       </c>
+      <c r="U39">
+        <v>27.50000011920929</v>
+      </c>
       <c r="V39">
         <v>63.5625</v>
       </c>
+      <c r="W39">
+        <v>28.49999916553497</v>
+      </c>
       <c r="X39">
         <v>64.734375</v>
       </c>
+      <c r="Y39">
+        <v>30.00000071525573</v>
+      </c>
       <c r="Z39">
         <v>79.96875</v>
+      </c>
+      <c r="AA39">
+        <v>55.25000047683716</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -2758,41 +3055,80 @@
       <c r="B40">
         <v>2.3359375</v>
       </c>
+      <c r="C40">
+        <v>16.3984375</v>
+      </c>
       <c r="D40">
         <v>12.4921875</v>
       </c>
+      <c r="E40">
+        <v>3.249998569488525</v>
+      </c>
       <c r="F40">
         <v>33.9765625</v>
       </c>
+      <c r="G40">
+        <v>4.250000596046449</v>
+      </c>
       <c r="H40">
         <v>46.4765625</v>
       </c>
+      <c r="I40">
+        <v>8.749999284744263</v>
+      </c>
       <c r="J40">
         <v>13.46875</v>
       </c>
+      <c r="K40">
+        <v>12.8828125</v>
+      </c>
       <c r="L40">
         <v>13.46875</v>
       </c>
+      <c r="M40">
+        <v>1.75</v>
+      </c>
       <c r="N40">
         <v>33</v>
       </c>
+      <c r="O40">
+        <v>3.500001311302185</v>
+      </c>
       <c r="P40">
         <v>38.859375</v>
       </c>
+      <c r="Q40">
+        <v>6.249998688697815</v>
+      </c>
       <c r="R40">
         <v>52.921875</v>
       </c>
+      <c r="S40">
+        <v>31.4375</v>
+      </c>
       <c r="T40">
         <v>55.0703125</v>
       </c>
+      <c r="U40">
+        <v>17.74999964237213</v>
+      </c>
       <c r="V40">
         <v>56.046875</v>
       </c>
+      <c r="W40">
+        <v>23.49999713897705</v>
+      </c>
       <c r="X40">
         <v>56.6328125</v>
       </c>
+      <c r="Y40">
+        <v>25.5000011920929</v>
+      </c>
       <c r="Z40">
         <v>69.328125</v>
+      </c>
+      <c r="AA40">
+        <v>34.2499988079071</v>
       </c>
     </row>
     <row r="41" spans="1:27">
@@ -2802,41 +3138,80 @@
       <c r="B41">
         <v>1.6796875</v>
       </c>
+      <c r="C41">
+        <v>9.8828125</v>
+      </c>
       <c r="D41">
         <v>5.390625</v>
       </c>
+      <c r="E41">
+        <v>1.250000596046448</v>
+      </c>
       <c r="F41">
         <v>30.1953125</v>
       </c>
+      <c r="G41">
+        <v>2.999998927116394</v>
+      </c>
       <c r="H41">
         <v>41.328125</v>
       </c>
+      <c r="I41">
+        <v>7.000001072883606</v>
+      </c>
       <c r="J41">
         <v>9.296875</v>
       </c>
+      <c r="K41">
+        <v>13.203125</v>
+      </c>
       <c r="L41">
         <v>21.9921875</v>
       </c>
+      <c r="M41">
+        <v>3.249998688697815</v>
+      </c>
       <c r="N41">
         <v>35.2734375</v>
       </c>
+      <c r="O41">
+        <v>4.250000715255736</v>
+      </c>
       <c r="P41">
         <v>37.2265625</v>
       </c>
+      <c r="Q41">
+        <v>6.750001311302185</v>
+      </c>
       <c r="R41">
         <v>36.0546875</v>
       </c>
+      <c r="S41">
+        <v>25.8984375</v>
+      </c>
       <c r="T41">
         <v>44.84375</v>
       </c>
+      <c r="U41">
+        <v>16.50000095367431</v>
+      </c>
       <c r="V41">
         <v>46.9921875</v>
       </c>
+      <c r="W41">
+        <v>20.49999713897705</v>
+      </c>
       <c r="X41">
         <v>48.359375</v>
       </c>
+      <c r="Y41">
+        <v>19.99999761581421</v>
+      </c>
       <c r="Z41">
         <v>59.8828125</v>
+      </c>
+      <c r="AA41">
+        <v>29.25000071525573</v>
       </c>
     </row>
     <row r="42" spans="1:27">
@@ -2846,41 +3221,80 @@
       <c r="B42">
         <v>1.890625</v>
       </c>
+      <c r="C42">
+        <v>6.7734375</v>
+      </c>
       <c r="D42">
         <v>2.0859375</v>
       </c>
+      <c r="E42">
+        <v>0.7500007152557373</v>
+      </c>
       <c r="F42">
         <v>24.9375</v>
       </c>
+      <c r="G42">
+        <v>2.249999284744263</v>
+      </c>
       <c r="H42">
         <v>29.234375</v>
       </c>
+      <c r="I42">
+        <v>6.500001192092896</v>
+      </c>
       <c r="J42">
         <v>13.0234375</v>
       </c>
+      <c r="K42">
+        <v>3.453125</v>
+      </c>
       <c r="L42">
         <v>13.0234375</v>
       </c>
+      <c r="M42">
+        <v>1.999999523162842</v>
+      </c>
       <c r="N42">
         <v>20.0546875</v>
       </c>
+      <c r="O42">
+        <v>3.249998331069946</v>
+      </c>
       <c r="P42">
         <v>29.8203125</v>
       </c>
+      <c r="Q42">
+        <v>3.249998331069946</v>
+      </c>
       <c r="R42">
         <v>36.4609375</v>
       </c>
+      <c r="S42">
+        <v>20.25</v>
+      </c>
       <c r="T42">
         <v>32.359375</v>
       </c>
+      <c r="U42">
+        <v>11.25000262260437</v>
+      </c>
       <c r="V42">
         <v>39.1953125</v>
       </c>
+      <c r="W42">
+        <v>17.75000238418579</v>
+      </c>
       <c r="X42">
         <v>39.78125</v>
       </c>
+      <c r="Y42">
+        <v>18.50000166893005</v>
+      </c>
       <c r="Z42">
         <v>49.9375</v>
+      </c>
+      <c r="AA42">
+        <v>19.75000047683716</v>
       </c>
     </row>
     <row r="43" spans="1:27">
@@ -2890,41 +3304,80 @@
       <c r="B43">
         <v>0.1484375</v>
       </c>
+      <c r="C43">
+        <v>3.46875</v>
+      </c>
       <c r="D43">
         <v>0.1484375</v>
       </c>
+      <c r="E43">
+        <v>0.7499973773956299</v>
+      </c>
       <c r="F43">
         <v>17.921875</v>
       </c>
+      <c r="G43">
+        <v>1.50000262260437</v>
+      </c>
       <c r="H43">
         <v>25.1484375</v>
       </c>
+      <c r="I43">
+        <v>3.500000715255737</v>
+      </c>
       <c r="J43">
         <v>13.8203125</v>
       </c>
+      <c r="K43">
+        <v>8.15625</v>
+      </c>
       <c r="L43">
         <v>13.8203125</v>
       </c>
+      <c r="M43">
+        <v>2.250001907348633</v>
+      </c>
       <c r="N43">
         <v>13.8203125</v>
       </c>
+      <c r="O43">
+        <v>2.500001668930054</v>
+      </c>
       <c r="P43">
         <v>22.609375</v>
       </c>
+      <c r="Q43">
+        <v>2.250001907348633</v>
+      </c>
       <c r="R43">
         <v>28.2734375</v>
       </c>
+      <c r="S43">
+        <v>14.015625</v>
+      </c>
       <c r="T43">
         <v>30.421875</v>
       </c>
+      <c r="U43">
+        <v>8.000002384185791</v>
+      </c>
       <c r="V43">
         <v>31.984375</v>
       </c>
+      <c r="W43">
+        <v>12.74999785423279</v>
+      </c>
       <c r="X43">
         <v>32.375</v>
       </c>
+      <c r="Y43">
+        <v>14.50000214576721</v>
+      </c>
       <c r="Z43">
         <v>39.796875</v>
+      </c>
+      <c r="AA43">
+        <v>15.25000143051147</v>
       </c>
     </row>
     <row r="44" spans="1:27">
@@ -2934,41 +3387,80 @@
       <c r="B44">
         <v>0.640625</v>
       </c>
+      <c r="C44">
+        <v>5.5234375</v>
+      </c>
       <c r="D44">
         <v>0.640625</v>
       </c>
+      <c r="E44">
+        <v>0.4999997615814209</v>
+      </c>
       <c r="F44">
         <v>0.8359375</v>
       </c>
+      <c r="G44">
+        <v>0.4999997615814209</v>
+      </c>
       <c r="H44">
         <v>15.2890625</v>
       </c>
+      <c r="I44">
+        <v>0.9999992847442628</v>
+      </c>
       <c r="J44">
         <v>-0.53125</v>
       </c>
+      <c r="K44">
+        <v>3.1796875</v>
+      </c>
       <c r="L44">
         <v>-0.53125</v>
       </c>
+      <c r="M44">
+        <v>0.4999997615814209</v>
+      </c>
       <c r="N44">
         <v>2.7890625</v>
       </c>
+      <c r="O44">
+        <v>0.7499995231628418</v>
+      </c>
       <c r="P44">
         <v>2.984375</v>
       </c>
+      <c r="Q44">
+        <v>0.7499995231628418</v>
+      </c>
       <c r="R44">
         <v>21.9296875</v>
       </c>
+      <c r="S44">
+        <v>13.140625</v>
+      </c>
       <c r="T44">
         <v>24.2734375</v>
       </c>
+      <c r="U44">
+        <v>8.499998092651367</v>
+      </c>
       <c r="V44">
         <v>25.640625</v>
       </c>
+      <c r="W44">
+        <v>10.75000190734863</v>
+      </c>
       <c r="X44">
         <v>25.8359375</v>
       </c>
+      <c r="Y44">
+        <v>11.25000143051148</v>
+      </c>
       <c r="Z44">
         <v>30.9140625</v>
+      </c>
+      <c r="AA44">
+        <v>11.25000143051148</v>
       </c>
     </row>
     <row r="45" spans="1:27">
@@ -2978,41 +3470,80 @@
       <c r="B45">
         <v>0.9921875</v>
       </c>
+      <c r="C45">
+        <v>6.0703125</v>
+      </c>
       <c r="D45">
         <v>0.9921875</v>
       </c>
+      <c r="E45">
+        <v>0.5000021457672119</v>
+      </c>
       <c r="F45">
         <v>0.9921875</v>
       </c>
+      <c r="G45">
+        <v>0.5000021457672119</v>
+      </c>
       <c r="H45">
         <v>9.5859375</v>
       </c>
+      <c r="I45">
+        <v>0.7500019073486328</v>
+      </c>
       <c r="J45">
         <v>0.2109375</v>
       </c>
+      <c r="K45">
+        <v>2.359375</v>
+      </c>
       <c r="L45">
         <v>0.2109375</v>
       </c>
+      <c r="M45">
+        <v>0.250002384185791</v>
+      </c>
       <c r="N45">
         <v>0.2109375</v>
       </c>
+      <c r="O45">
+        <v>0.250002384185791</v>
+      </c>
       <c r="P45">
         <v>2.1640625</v>
       </c>
+      <c r="Q45">
+        <v>0.5000021457672119</v>
+      </c>
       <c r="R45">
         <v>14.46875</v>
       </c>
+      <c r="S45">
+        <v>10.171875</v>
+      </c>
       <c r="T45">
         <v>16.2265625</v>
       </c>
+      <c r="U45">
+        <v>6.25000262260437</v>
+      </c>
       <c r="V45">
         <v>17.203125</v>
       </c>
+      <c r="W45">
+        <v>6.25000262260437</v>
+      </c>
       <c r="X45">
         <v>17.59375</v>
       </c>
+      <c r="Y45">
+        <v>6.750002145767213</v>
+      </c>
       <c r="Z45">
         <v>21.109375</v>
+      </c>
+      <c r="AA45">
+        <v>6.750002145767213</v>
       </c>
     </row>
     <row r="46" spans="1:27">
@@ -3022,41 +3553,80 @@
       <c r="B46">
         <v>0.53125</v>
       </c>
+      <c r="C46">
+        <v>1.5078125</v>
+      </c>
       <c r="D46">
         <v>0.53125</v>
       </c>
+      <c r="E46">
+        <v>0.2499995231628418</v>
+      </c>
       <c r="F46">
         <v>1.1171875</v>
       </c>
+      <c r="G46">
+        <v>0.2499995231628418</v>
+      </c>
       <c r="H46">
         <v>4.046875</v>
       </c>
+      <c r="I46">
+        <v>0.4999992847442627</v>
+      </c>
       <c r="J46">
         <v>0.3359375</v>
       </c>
+      <c r="K46">
+        <v>2.2890625</v>
+      </c>
       <c r="L46">
         <v>0.3359375</v>
       </c>
+      <c r="M46">
+        <v>0.2499995231628418</v>
+      </c>
       <c r="N46">
         <v>2.484375</v>
       </c>
+      <c r="O46">
+        <v>0.4999992847442627</v>
+      </c>
       <c r="P46">
         <v>2.875</v>
       </c>
+      <c r="Q46">
+        <v>0.7499990463256836</v>
+      </c>
       <c r="R46">
         <v>8.34375</v>
       </c>
+      <c r="S46">
+        <v>5.0234375</v>
+      </c>
       <c r="T46">
         <v>9.3203125</v>
       </c>
+      <c r="U46">
+        <v>4.500001430511475</v>
+      </c>
       <c r="V46">
         <v>9.515625</v>
       </c>
+      <c r="W46">
+        <v>4.250001668930054</v>
+      </c>
       <c r="X46">
         <v>9.515625</v>
       </c>
+      <c r="Y46">
+        <v>4.250001668930054</v>
+      </c>
       <c r="Z46">
         <v>11.6640625</v>
+      </c>
+      <c r="AA46">
+        <v>4.250001668930054</v>
       </c>
     </row>
     <row r="47" spans="1:27">
@@ -3066,41 +3636,80 @@
       <c r="B47">
         <v>0.1015625</v>
       </c>
+      <c r="C47">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="D47">
         <v>0.1015625</v>
       </c>
+      <c r="E47">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="F47">
         <v>0.4921875</v>
       </c>
+      <c r="G47">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="H47">
         <v>0.6875</v>
       </c>
+      <c r="I47">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="J47">
         <v>0.1015625</v>
       </c>
+      <c r="K47">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="L47">
         <v>1.2734375</v>
       </c>
+      <c r="M47">
+        <v>0.2500019073486328</v>
+      </c>
       <c r="N47">
         <v>1.2734375</v>
       </c>
+      <c r="O47">
+        <v>0.2500019073486328</v>
+      </c>
       <c r="P47">
         <v>1.2734375</v>
       </c>
+      <c r="Q47">
+        <v>0.2500019073486328</v>
+      </c>
       <c r="R47">
         <v>0.1015625</v>
       </c>
+      <c r="S47">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="T47">
         <v>0.1015625</v>
       </c>
+      <c r="U47">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="V47">
         <v>0.4921875</v>
       </c>
+      <c r="W47">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="X47">
         <v>0.6875</v>
       </c>
+      <c r="Y47">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="Z47">
         <v>1.6640625</v>
+      </c>
+      <c r="AA47">
+        <v>0.5000016689300537</v>
       </c>
     </row>
     <row r="49" spans="1:27">
@@ -3108,15 +3717,18 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:27">
       <c r="A50" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -3126,7 +3738,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -3136,7 +3748,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
@@ -3146,145 +3758,145 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA50" s="1"/>
     </row>
     <row r="51" spans="1:27">
       <c r="B51" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O51" s="1"/>
       <c r="P51" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S51" s="1"/>
       <c r="T51" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U51" s="1"/>
       <c r="V51" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W51" s="1"/>
       <c r="X51" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA51" s="1"/>
     </row>
     <row r="52" spans="1:27">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:27">
@@ -3294,41 +3906,80 @@
       <c r="B53">
         <v>95.3125</v>
       </c>
+      <c r="C53">
+        <v>93.75</v>
+      </c>
       <c r="D53">
         <v>98.046875</v>
       </c>
+      <c r="E53">
+        <v>93.75</v>
+      </c>
       <c r="F53">
         <v>98.4375</v>
       </c>
+      <c r="G53">
+        <v>94.24999952316284</v>
+      </c>
       <c r="H53">
         <v>98.4375</v>
       </c>
+      <c r="I53">
+        <v>94.24999952316284</v>
+      </c>
       <c r="J53">
         <v>99.21875</v>
       </c>
+      <c r="K53">
+        <v>93.99999976158142</v>
+      </c>
       <c r="L53">
         <v>99.21875</v>
       </c>
+      <c r="M53">
+        <v>93.99999976158142</v>
+      </c>
       <c r="N53">
         <v>99.21875</v>
       </c>
+      <c r="O53">
+        <v>94.24999952316284</v>
+      </c>
       <c r="P53">
         <v>99.21875</v>
       </c>
+      <c r="Q53">
+        <v>94.24999952316284</v>
+      </c>
       <c r="R53">
         <v>98.828125</v>
       </c>
+      <c r="S53">
+        <v>94.24999952316284</v>
+      </c>
       <c r="T53">
         <v>98.828125</v>
       </c>
+      <c r="U53">
+        <v>96.24999761581421</v>
+      </c>
       <c r="V53">
         <v>98.828125</v>
       </c>
+      <c r="W53">
+        <v>97.25000262260436</v>
+      </c>
       <c r="X53">
         <v>98.828125</v>
       </c>
+      <c r="Y53">
+        <v>97.75000214576721</v>
+      </c>
       <c r="Z53">
         <v>99.21875</v>
+      </c>
+      <c r="AA53">
+        <v>98.25000166893005</v>
       </c>
     </row>
     <row r="54" spans="1:27">
@@ -3338,41 +3989,80 @@
       <c r="B54">
         <v>86.6796875</v>
       </c>
+      <c r="C54">
+        <v>83.99999976158142</v>
+      </c>
       <c r="D54">
         <v>86.6796875</v>
       </c>
+      <c r="E54">
+        <v>83.99999976158142</v>
+      </c>
       <c r="F54">
         <v>88.4375</v>
       </c>
+      <c r="G54">
+        <v>84.49999928474426</v>
+      </c>
       <c r="H54">
         <v>88.828125</v>
       </c>
+      <c r="I54">
+        <v>84.74999904632568</v>
+      </c>
       <c r="J54">
         <v>89.21875</v>
       </c>
+      <c r="K54">
+        <v>83.75</v>
+      </c>
       <c r="L54">
         <v>89.21875</v>
       </c>
+      <c r="M54">
+        <v>84.24999952316284</v>
+      </c>
       <c r="N54">
         <v>89.21875</v>
       </c>
+      <c r="O54">
+        <v>84.49999928474426</v>
+      </c>
       <c r="P54">
         <v>89.21875</v>
       </c>
+      <c r="Q54">
+        <v>84.49999928474426</v>
+      </c>
       <c r="R54">
         <v>88.4375</v>
       </c>
+      <c r="S54">
+        <v>85.24999856948854</v>
+      </c>
       <c r="T54">
         <v>88.828125</v>
       </c>
+      <c r="U54">
+        <v>85.99999785423279</v>
+      </c>
       <c r="V54">
         <v>88.828125</v>
       </c>
+      <c r="W54">
+        <v>87.00000286102295</v>
+      </c>
       <c r="X54">
         <v>89.0234375</v>
       </c>
+      <c r="Y54">
+        <v>88.25000166893005</v>
+      </c>
       <c r="Z54">
         <v>89.21875</v>
+      </c>
+      <c r="AA54">
+        <v>88.25000166893005</v>
       </c>
     </row>
     <row r="55" spans="1:27">
@@ -3382,41 +4072,80 @@
       <c r="B55">
         <v>78.6015625</v>
       </c>
+      <c r="C55">
+        <v>74.74999976158142</v>
+      </c>
       <c r="D55">
         <v>78.796875</v>
       </c>
+      <c r="E55">
+        <v>74.74999976158142</v>
+      </c>
       <c r="F55">
         <v>78.9921875</v>
       </c>
+      <c r="G55">
+        <v>74.99999952316284</v>
+      </c>
       <c r="H55">
         <v>78.9921875</v>
       </c>
+      <c r="I55">
+        <v>75.24999928474426</v>
+      </c>
       <c r="J55">
         <v>0.8671875</v>
       </c>
+      <c r="K55">
+        <v>67.0000011920929</v>
+      </c>
       <c r="L55">
         <v>74.890625</v>
       </c>
+      <c r="M55">
+        <v>73.50000095367432</v>
+      </c>
       <c r="N55">
         <v>78.796875</v>
       </c>
+      <c r="O55">
+        <v>74.74999976158142</v>
+      </c>
       <c r="P55">
         <v>78.9921875</v>
       </c>
+      <c r="Q55">
+        <v>74.99999952316284</v>
+      </c>
       <c r="R55">
         <v>78.9921875</v>
       </c>
+      <c r="S55">
+        <v>76.49999809265138</v>
+      </c>
       <c r="T55">
         <v>78.9921875</v>
       </c>
+      <c r="U55">
+        <v>77.49999713897705</v>
+      </c>
       <c r="V55">
         <v>78.9921875</v>
       </c>
+      <c r="W55">
+        <v>77.75000286102295</v>
+      </c>
       <c r="X55">
         <v>78.9921875</v>
       </c>
+      <c r="Y55">
+        <v>78.00000262260438</v>
+      </c>
       <c r="Z55">
         <v>79.1875</v>
+      </c>
+      <c r="AA55">
+        <v>78.75000190734862</v>
       </c>
     </row>
     <row r="56" spans="1:27">
@@ -3426,41 +4155,80 @@
       <c r="B56">
         <v>67.5703125</v>
       </c>
+      <c r="C56">
+        <v>64.99999928474425</v>
+      </c>
       <c r="D56">
         <v>68.7421875</v>
       </c>
+      <c r="E56">
+        <v>65.24999904632568</v>
+      </c>
       <c r="F56">
         <v>68.9375</v>
       </c>
+      <c r="G56">
+        <v>65.24999904632568</v>
+      </c>
       <c r="H56">
         <v>68.9375</v>
       </c>
+      <c r="I56">
+        <v>65.4999988079071</v>
+      </c>
       <c r="J56">
         <v>0.3828125</v>
       </c>
+      <c r="K56">
+        <v>58.49999952316284</v>
+      </c>
       <c r="L56">
         <v>0.3828125</v>
       </c>
+      <c r="M56">
+        <v>58</v>
+      </c>
       <c r="N56">
         <v>67.5703125</v>
       </c>
+      <c r="O56">
+        <v>64.99999928474425</v>
+      </c>
       <c r="P56">
         <v>68.9375</v>
       </c>
+      <c r="Q56">
+        <v>65.24999904632568</v>
+      </c>
       <c r="R56">
         <v>68.9375</v>
       </c>
+      <c r="S56">
+        <v>65.24999904632568</v>
+      </c>
       <c r="T56">
         <v>68.9375</v>
       </c>
+      <c r="U56">
+        <v>65.4999988079071</v>
+      </c>
       <c r="V56">
         <v>68.9375</v>
       </c>
+      <c r="W56">
+        <v>66.24999809265137</v>
+      </c>
       <c r="X56">
         <v>68.9375</v>
       </c>
+      <c r="Y56">
+        <v>66.99999737739563</v>
+      </c>
       <c r="Z56">
         <v>69.328125</v>
+      </c>
+      <c r="AA56">
+        <v>68.50000190734863</v>
       </c>
     </row>
     <row r="57" spans="1:27">
@@ -3470,41 +4238,80 @@
       <c r="B57">
         <v>58.515625</v>
       </c>
+      <c r="C57">
+        <v>55.74999928474426</v>
+      </c>
       <c r="D57">
         <v>59.6875</v>
       </c>
+      <c r="E57">
+        <v>56.2499988079071</v>
+      </c>
       <c r="F57">
         <v>59.6875</v>
       </c>
+      <c r="G57">
+        <v>56.2499988079071</v>
+      </c>
       <c r="H57">
         <v>59.8828125</v>
       </c>
+      <c r="I57">
+        <v>57.24999785423279</v>
+      </c>
       <c r="J57">
         <v>60.078125</v>
       </c>
+      <c r="K57">
+        <v>54.25000071525574</v>
+      </c>
       <c r="L57">
         <v>60.078125</v>
       </c>
+      <c r="M57">
+        <v>54.25000071525574</v>
+      </c>
       <c r="N57">
         <v>60.078125</v>
       </c>
+      <c r="O57">
+        <v>55.74999928474426</v>
+      </c>
       <c r="P57">
         <v>60.078125</v>
       </c>
+      <c r="Q57">
+        <v>56.2499988079071</v>
+      </c>
       <c r="R57">
         <v>59.6875</v>
       </c>
+      <c r="S57">
+        <v>56.49999856948853</v>
+      </c>
       <c r="T57">
         <v>59.8828125</v>
       </c>
+      <c r="U57">
+        <v>57.49999761581421</v>
+      </c>
       <c r="V57">
         <v>59.8828125</v>
       </c>
+      <c r="W57">
+        <v>57.24999785423279</v>
+      </c>
       <c r="X57">
         <v>59.8828125</v>
       </c>
+      <c r="Y57">
+        <v>57.74999737739563</v>
+      </c>
       <c r="Z57">
         <v>60.46875</v>
+      </c>
+      <c r="AA57">
+        <v>59.00000214576721</v>
       </c>
     </row>
     <row r="58" spans="1:27">
@@ -3514,41 +4321,80 @@
       <c r="B58">
         <v>48.5703125</v>
       </c>
+      <c r="C58">
+        <v>46.74999856948853</v>
+      </c>
       <c r="D58">
         <v>49.9375</v>
       </c>
+      <c r="E58">
+        <v>47.24999809265137</v>
+      </c>
       <c r="F58">
         <v>49.9375</v>
       </c>
+      <c r="G58">
+        <v>47.24999809265137</v>
+      </c>
       <c r="H58">
         <v>50.1328125</v>
       </c>
+      <c r="I58">
+        <v>47.99999737739563</v>
+      </c>
       <c r="J58">
         <v>50.328125</v>
       </c>
+      <c r="K58">
+        <v>45.49999976158142</v>
+      </c>
       <c r="L58">
         <v>50.71875</v>
       </c>
+      <c r="M58">
+        <v>46.74999856948853</v>
+      </c>
       <c r="N58">
         <v>50.71875</v>
       </c>
+      <c r="O58">
+        <v>46.74999856948853</v>
+      </c>
       <c r="P58">
         <v>50.71875</v>
       </c>
+      <c r="Q58">
+        <v>47.99999737739563</v>
+      </c>
       <c r="R58">
         <v>49.9375</v>
       </c>
+      <c r="S58">
+        <v>46.99999833106994</v>
+      </c>
       <c r="T58">
         <v>49.9375</v>
       </c>
+      <c r="U58">
+        <v>46.99999833106994</v>
+      </c>
       <c r="V58">
         <v>50.1328125</v>
       </c>
+      <c r="W58">
+        <v>47.99999737739563</v>
+      </c>
       <c r="X58">
         <v>50.1328125</v>
       </c>
+      <c r="Y58">
+        <v>48.50000286102295</v>
+      </c>
       <c r="Z58">
         <v>50.71875</v>
+      </c>
+      <c r="AA58">
+        <v>49.50000190734863</v>
       </c>
     </row>
     <row r="59" spans="1:27">
@@ -3558,41 +4404,80 @@
       <c r="B59">
         <v>38.4296875</v>
       </c>
+      <c r="C59">
+        <v>37.24999833106995</v>
+      </c>
       <c r="D59">
         <v>39.9921875</v>
       </c>
+      <c r="E59">
+        <v>37.74999785423279</v>
+      </c>
       <c r="F59">
         <v>40.3828125</v>
       </c>
+      <c r="G59">
+        <v>37.74999785423279</v>
+      </c>
       <c r="H59">
         <v>40.3828125</v>
       </c>
+      <c r="I59">
+        <v>38.49999713897704</v>
+      </c>
       <c r="J59">
         <v>40.7734375</v>
       </c>
+      <c r="K59">
+        <v>36.24999928474426</v>
+      </c>
       <c r="L59">
         <v>40.7734375</v>
       </c>
+      <c r="M59">
+        <v>36.24999928474426</v>
+      </c>
       <c r="N59">
         <v>40.7734375</v>
       </c>
+      <c r="O59">
+        <v>36.24999928474426</v>
+      </c>
       <c r="P59">
         <v>41.1640625</v>
       </c>
+      <c r="Q59">
+        <v>37.49999809265137</v>
+      </c>
       <c r="R59">
         <v>40.7734375</v>
       </c>
+      <c r="S59">
+        <v>37.74999785423279</v>
+      </c>
       <c r="T59">
         <v>40.578125</v>
       </c>
+      <c r="U59">
+        <v>37.49999809265137</v>
+      </c>
       <c r="V59">
         <v>40.578125</v>
       </c>
+      <c r="W59">
+        <v>38.49999713897704</v>
+      </c>
       <c r="X59">
         <v>40.578125</v>
       </c>
+      <c r="Y59">
+        <v>38.75000286102296</v>
+      </c>
       <c r="Z59">
         <v>41.1640625</v>
+      </c>
+      <c r="AA59">
+        <v>40.00000166893005</v>
       </c>
     </row>
     <row r="60" spans="1:27">
@@ -3602,41 +4487,80 @@
       <c r="B60">
         <v>28.5703125</v>
       </c>
+      <c r="C60">
+        <v>27.49999785423279</v>
+      </c>
       <c r="D60">
         <v>29.9375</v>
       </c>
+      <c r="E60">
+        <v>27.99999737739563</v>
+      </c>
       <c r="F60">
         <v>30.5234375</v>
       </c>
+      <c r="G60">
+        <v>28.75000262260437</v>
+      </c>
       <c r="H60">
         <v>30.5234375</v>
       </c>
+      <c r="I60">
+        <v>28.75000262260437</v>
+      </c>
       <c r="J60">
         <v>30.1328125</v>
       </c>
+      <c r="K60">
+        <v>27.74999761581421</v>
+      </c>
       <c r="L60">
         <v>30.9140625</v>
       </c>
+      <c r="M60">
+        <v>27.74999761581421</v>
+      </c>
       <c r="N60">
         <v>30.9140625</v>
       </c>
+      <c r="O60">
+        <v>27.74999761581421</v>
+      </c>
       <c r="P60">
         <v>30.9140625</v>
       </c>
+      <c r="Q60">
+        <v>27.74999761581421</v>
+      </c>
       <c r="R60">
         <v>29.9375</v>
       </c>
+      <c r="S60">
+        <v>27.74999761581421</v>
+      </c>
       <c r="T60">
         <v>30.5234375</v>
       </c>
+      <c r="U60">
+        <v>28.75000262260437</v>
+      </c>
       <c r="V60">
         <v>30.71875</v>
       </c>
+      <c r="W60">
+        <v>29.00000238418579</v>
+      </c>
       <c r="X60">
         <v>30.71875</v>
       </c>
+      <c r="Y60">
+        <v>29.50000190734864</v>
+      </c>
       <c r="Z60">
         <v>30.9140625</v>
+      </c>
+      <c r="AA60">
+        <v>29.75000166893005</v>
       </c>
     </row>
     <row r="61" spans="1:27">
@@ -3646,41 +4570,80 @@
       <c r="B61">
         <v>17.984375</v>
       </c>
+      <c r="C61">
+        <v>16.24999904632569</v>
+      </c>
       <c r="D61">
         <v>20.1328125</v>
       </c>
+      <c r="E61">
+        <v>18.24999713897705</v>
+      </c>
       <c r="F61">
         <v>20.328125</v>
       </c>
+      <c r="G61">
+        <v>19.50000190734864</v>
+      </c>
       <c r="H61">
         <v>20.328125</v>
       </c>
+      <c r="I61">
+        <v>19.50000190734864</v>
+      </c>
       <c r="J61">
         <v>0.2109375</v>
       </c>
+      <c r="K61">
+        <v>16.24999904632569</v>
+      </c>
       <c r="L61">
         <v>0.2109375</v>
       </c>
+      <c r="M61">
+        <v>16.24999904632569</v>
+      </c>
       <c r="N61">
         <v>0.2109375</v>
       </c>
+      <c r="O61">
+        <v>16.24999904632569</v>
+      </c>
       <c r="P61">
         <v>20.71875</v>
       </c>
+      <c r="Q61">
+        <v>17.99999737739563</v>
+      </c>
       <c r="R61">
         <v>20.1328125</v>
       </c>
+      <c r="S61">
+        <v>18.24999713897705</v>
+      </c>
       <c r="T61">
         <v>20.328125</v>
       </c>
+      <c r="U61">
+        <v>19.25000214576721</v>
+      </c>
       <c r="V61">
         <v>20.328125</v>
       </c>
+      <c r="W61">
+        <v>19.50000190734864</v>
+      </c>
       <c r="X61">
         <v>20.328125</v>
       </c>
+      <c r="Y61">
+        <v>19.50000190734864</v>
+      </c>
       <c r="Z61">
         <v>21.3046875</v>
+      </c>
+      <c r="AA61">
+        <v>20.00000143051148</v>
       </c>
     </row>
     <row r="62" spans="1:27">
@@ -3690,41 +4653,80 @@
       <c r="B62">
         <v>10.296875</v>
       </c>
+      <c r="C62">
+        <v>8.999997138977051</v>
+      </c>
       <c r="D62">
         <v>10.6875</v>
       </c>
+      <c r="E62">
+        <v>9.250002861022949</v>
+      </c>
       <c r="F62">
         <v>10.6875</v>
       </c>
+      <c r="G62">
+        <v>9.250002861022949</v>
+      </c>
       <c r="H62">
         <v>10.8828125</v>
       </c>
+      <c r="I62">
+        <v>9.250002861022949</v>
+      </c>
       <c r="J62">
         <v>0.3359375</v>
       </c>
+      <c r="K62">
+        <v>8.249997854232786</v>
+      </c>
       <c r="L62">
         <v>0.3359375</v>
       </c>
+      <c r="M62">
+        <v>8.249997854232786</v>
+      </c>
       <c r="N62">
         <v>11.2734375</v>
       </c>
+      <c r="O62">
+        <v>9.250002861022949</v>
+      </c>
       <c r="P62">
         <v>11.2734375</v>
       </c>
+      <c r="Q62">
+        <v>9.250002861022949</v>
+      </c>
       <c r="R62">
         <v>10.8828125</v>
       </c>
+      <c r="S62">
+        <v>9.750002384185793</v>
+      </c>
       <c r="T62">
         <v>10.8828125</v>
       </c>
+      <c r="U62">
+        <v>9.750002384185793</v>
+      </c>
       <c r="V62">
         <v>10.8828125</v>
       </c>
+      <c r="W62">
+        <v>9.750002384185793</v>
+      </c>
       <c r="X62">
         <v>10.8828125</v>
       </c>
+      <c r="Y62">
+        <v>10.00000214576721</v>
+      </c>
       <c r="Z62">
         <v>11.6640625</v>
+      </c>
+      <c r="AA62">
+        <v>10.75000143051148</v>
       </c>
     </row>
     <row r="63" spans="1:27">
@@ -3734,41 +4736,80 @@
       <c r="B63">
         <v>0.1015625</v>
       </c>
+      <c r="C63">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="D63">
         <v>0.1015625</v>
       </c>
+      <c r="E63">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="F63">
         <v>0.4921875</v>
       </c>
+      <c r="G63">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="H63">
         <v>0.6875</v>
       </c>
+      <c r="I63">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="J63">
         <v>0.1015625</v>
       </c>
+      <c r="K63">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="L63">
         <v>1.2734375</v>
       </c>
+      <c r="M63">
+        <v>0.2500019073486328</v>
+      </c>
       <c r="N63">
         <v>1.2734375</v>
       </c>
+      <c r="O63">
+        <v>0.2500019073486328</v>
+      </c>
       <c r="P63">
         <v>1.2734375</v>
       </c>
+      <c r="Q63">
+        <v>0.2500019073486328</v>
+      </c>
       <c r="R63">
         <v>0.1015625</v>
       </c>
+      <c r="S63">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="T63">
         <v>0.1015625</v>
       </c>
+      <c r="U63">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="V63">
         <v>0.4921875</v>
       </c>
+      <c r="W63">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="X63">
         <v>0.6875</v>
       </c>
+      <c r="Y63">
+        <v>2.145767211914062E-06</v>
+      </c>
       <c r="Z63">
         <v>1.6640625</v>
+      </c>
+      <c r="AA63">
+        <v>0.5000016689300537</v>
       </c>
     </row>
   </sheetData>
@@ -3861,13 +4902,16 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3877,7 +4921,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -3887,7 +4931,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -3897,145 +4941,145 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27">
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W3" s="1"/>
       <c r="X3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -4045,41 +5089,80 @@
       <c r="B5">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C5">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D5">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E5">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F5">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G5">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H5">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I5">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J5">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K5">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="L5">
         <v>0.001440812104817723</v>
       </c>
+      <c r="M5">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N5">
         <v>0.001440812104817723</v>
       </c>
+      <c r="O5">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P5">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q5">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R5">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S5">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T5">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U5">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V5">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W5">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X5">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y5">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z5">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA5">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -4089,41 +5172,80 @@
       <c r="B6">
         <v>0.006113816255208349</v>
       </c>
+      <c r="C6">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D6">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E6">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F6">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G6">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H6">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I6">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J6">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K6">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="L6">
         <v>0.001440812104817723</v>
       </c>
+      <c r="M6">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N6">
         <v>0.001440812104817723</v>
       </c>
+      <c r="O6">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P6">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q6">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R6">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S6">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T6">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U6">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V6">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W6">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X6">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y6">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z6">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA6">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -4133,41 +5255,80 @@
       <c r="B7">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C7">
+        <v>0.004689265245076514</v>
+      </c>
       <c r="D7">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E7">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F7">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G7">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H7">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I7">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J7">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K7">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="L7">
         <v>0.001440812104817723</v>
       </c>
+      <c r="M7">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N7">
         <v>0.001440812104817723</v>
       </c>
+      <c r="O7">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P7">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q7">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R7">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S7">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T7">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U7">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V7">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W7">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X7">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y7">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z7">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA7">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -4177,41 +5338,80 @@
       <c r="B8">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C8">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D8">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E8">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F8">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G8">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H8">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I8">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J8">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K8">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="L8">
         <v>0.001440812104817723</v>
       </c>
+      <c r="M8">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N8">
         <v>0.001440812104817723</v>
       </c>
+      <c r="O8">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P8">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q8">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R8">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S8">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T8">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U8">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V8">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W8">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X8">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y8">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z8">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA8">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -4221,41 +5421,80 @@
       <c r="B9">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C9">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D9">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E9">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F9">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G9">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H9">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I9">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J9">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K9">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="L9">
         <v>0.001440812104817723</v>
       </c>
+      <c r="M9">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N9">
         <v>0.001440812104817723</v>
       </c>
+      <c r="O9">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P9">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q9">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R9">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S9">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T9">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U9">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V9">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W9">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X9">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y9">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z9">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA9">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -4265,41 +5504,80 @@
       <c r="B10">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C10">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D10">
         <v>0.006113816255208349</v>
       </c>
+      <c r="E10">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F10">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G10">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H10">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I10">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J10">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K10">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="L10">
         <v>0.001440812104817723</v>
       </c>
+      <c r="M10">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N10">
         <v>0.001440812104817723</v>
       </c>
+      <c r="O10">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P10">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q10">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R10">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S10">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T10">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U10">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V10">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W10">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X10">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y10">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z10">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA10">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -4309,41 +5587,80 @@
       <c r="B11">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C11">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D11">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E11">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F11">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G11">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H11">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I11">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J11">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K11">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="L11">
         <v>0.001440812104817723</v>
       </c>
+      <c r="M11">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N11">
         <v>0.001440812104817723</v>
       </c>
+      <c r="O11">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P11">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q11">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R11">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S11">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T11">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U11">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V11">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W11">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X11">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y11">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z11">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA11">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -4353,41 +5670,80 @@
       <c r="B12">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C12">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D12">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E12">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F12">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G12">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H12">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I12">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J12">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K12">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="L12">
         <v>0.001440812104817723</v>
       </c>
+      <c r="M12">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N12">
         <v>0.001440812104817723</v>
       </c>
+      <c r="O12">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P12">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q12">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R12">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S12">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T12">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U12">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V12">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W12">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X12">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y12">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z12">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA12">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -4397,41 +5753,80 @@
       <c r="B13">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C13">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D13">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E13">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F13">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G13">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H13">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I13">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J13">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K13">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="L13">
         <v>0.001440812104817723</v>
       </c>
+      <c r="M13">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N13">
         <v>0.001440812104817723</v>
       </c>
+      <c r="O13">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P13">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q13">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R13">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S13">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T13">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U13">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V13">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W13">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X13">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y13">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z13">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA13">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -4441,41 +5836,80 @@
       <c r="B14">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C14">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D14">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E14">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F14">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G14">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H14">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I14">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J14">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K14">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="L14">
         <v>0.001440812104817723</v>
       </c>
+      <c r="M14">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N14">
         <v>0.001440812104817723</v>
       </c>
+      <c r="O14">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P14">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q14">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R14">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S14">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T14">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U14">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V14">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W14">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X14">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y14">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z14">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA14">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -4485,41 +5919,80 @@
       <c r="B15">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C15">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D15">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E15">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F15">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G15">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H15">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I15">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J15">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="K15">
+        <v>0.004689265245076514</v>
       </c>
       <c r="L15">
         <v>0.01079278087007651</v>
       </c>
+      <c r="M15">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N15">
         <v>0.01079278087007651</v>
       </c>
+      <c r="O15">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P15">
         <v>0.01079278087007651</v>
       </c>
+      <c r="Q15">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R15">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S15">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T15">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U15">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V15">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W15">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X15">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y15">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z15">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA15">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -4527,15 +6000,18 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -4545,7 +6021,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -4555,7 +6031,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -4565,145 +6041,145 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="1:27">
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W19" s="1"/>
       <c r="X19" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -4713,41 +6189,80 @@
       <c r="B21">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C21">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D21">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E21">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F21">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G21">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H21">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I21">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J21">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K21">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="L21">
         <v>0.001440812104817723</v>
       </c>
+      <c r="M21">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N21">
         <v>0.001440812104817723</v>
       </c>
+      <c r="O21">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P21">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q21">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R21">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S21">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T21">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U21">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V21">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W21">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X21">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y21">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z21">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA21">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -4757,41 +6272,80 @@
       <c r="B22">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C22">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D22">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E22">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F22">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G22">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H22">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I22">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J22">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K22">
+        <v>0.004689265245076514</v>
+      </c>
       <c r="L22">
         <v>0.001440812104817723</v>
       </c>
+      <c r="M22">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N22">
         <v>0.001440812104817723</v>
       </c>
+      <c r="O22">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P22">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q22">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R22">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S22">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T22">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U22">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V22">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W22">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X22">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y22">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z22">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA22">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -4801,41 +6355,80 @@
       <c r="B23">
         <v>0.01079278087007651</v>
       </c>
+      <c r="C23">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D23">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E23">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F23">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G23">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H23">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I23">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J23">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K23">
+        <v>0.004689265245076514</v>
+      </c>
       <c r="L23">
         <v>0.001440812104817723</v>
       </c>
+      <c r="M23">
+        <v>0.004689265245076514</v>
+      </c>
       <c r="N23">
         <v>0.001440812104817723</v>
       </c>
+      <c r="O23">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P23">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q23">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R23">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S23">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T23">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U23">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V23">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W23">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X23">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y23">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z23">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA23">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -4845,41 +6438,80 @@
       <c r="B24">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C24">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D24">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E24">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F24">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G24">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H24">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I24">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J24">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K24">
+        <v>0.004689265245076514</v>
+      </c>
       <c r="L24">
         <v>0.001440812104817723</v>
       </c>
+      <c r="M24">
+        <v>0.004689265245076514</v>
+      </c>
       <c r="N24">
         <v>0.001440812104817723</v>
       </c>
+      <c r="O24">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P24">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q24">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R24">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S24">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T24">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U24">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V24">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W24">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X24">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y24">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z24">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA24">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -4889,41 +6521,80 @@
       <c r="B25">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C25">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D25">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E25">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F25">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G25">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H25">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="I25">
+        <v>-1.620298746729532E-06</v>
       </c>
       <c r="J25">
         <v>0.01079278087007651</v>
       </c>
+      <c r="K25">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="L25">
         <v>0.01079278087007651</v>
       </c>
+      <c r="M25">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N25">
         <v>0.001440812104817723</v>
       </c>
+      <c r="O25">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P25">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q25">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R25">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S25">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T25">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U25">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V25">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W25">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X25">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y25">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z25">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA25">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -4933,41 +6604,80 @@
       <c r="B26">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C26">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D26">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E26">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F26">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G26">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H26">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="I26">
+        <v>-1.620298746729532E-06</v>
       </c>
       <c r="J26">
         <v>0.01079278087007651</v>
       </c>
+      <c r="K26">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="L26">
         <v>0.01079278087007651</v>
       </c>
+      <c r="M26">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N26">
         <v>0.01079278087007651</v>
       </c>
+      <c r="O26">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P26">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q26">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R26">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S26">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T26">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U26">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V26">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W26">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X26">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y26">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z26">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA26">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -4977,41 +6687,80 @@
       <c r="B27">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C27">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D27">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E27">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F27">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G27">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H27">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="I27">
+        <v>-1.620298746729532E-06</v>
       </c>
       <c r="J27">
         <v>0.01079278087007651</v>
       </c>
+      <c r="K27">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="L27">
         <v>0.01079278087007651</v>
       </c>
+      <c r="M27">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N27">
         <v>0.01079278087007651</v>
       </c>
+      <c r="O27">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P27">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q27">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R27">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S27">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T27">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U27">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V27">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W27">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X27">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y27">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z27">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA27">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -5021,41 +6770,80 @@
       <c r="B28">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C28">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D28">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E28">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F28">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G28">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H28">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I28">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J28">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K28">
+        <v>0.004689265245076514</v>
+      </c>
       <c r="L28">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="M28">
+        <v>0.004689265245076514</v>
       </c>
       <c r="N28">
         <v>0.01079278087007651</v>
       </c>
+      <c r="O28">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P28">
         <v>0.01079278087007651</v>
       </c>
+      <c r="Q28">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R28">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S28">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T28">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U28">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V28">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W28">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X28">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y28">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z28">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA28">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -5065,41 +6853,80 @@
       <c r="B29">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C29">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D29">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E29">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F29">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G29">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H29">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I29">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J29">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K29">
+        <v>0.004689265245076514</v>
+      </c>
       <c r="L29">
         <v>0.001440812104817723</v>
       </c>
+      <c r="M29">
+        <v>0.004689265245076514</v>
+      </c>
       <c r="N29">
         <v>0.001440812104817723</v>
       </c>
+      <c r="O29">
+        <v>0.004689265245076514</v>
+      </c>
       <c r="P29">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q29">
+        <v>0.004689265245076514</v>
+      </c>
       <c r="R29">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S29">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T29">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U29">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V29">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W29">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X29">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y29">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z29">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA29">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -5109,41 +6936,80 @@
       <c r="B30">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C30">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D30">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E30">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F30">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G30">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H30">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I30">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J30">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K30">
+        <v>0.004689265245076514</v>
+      </c>
       <c r="L30">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="M30">
+        <v>0.004689265245076514</v>
       </c>
       <c r="N30">
         <v>0.01079278087007651</v>
       </c>
+      <c r="O30">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P30">
         <v>0.01079278087007651</v>
       </c>
+      <c r="Q30">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R30">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S30">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T30">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U30">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V30">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W30">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X30">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y30">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z30">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA30">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -5153,41 +7019,80 @@
       <c r="B31">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C31">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D31">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E31">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F31">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G31">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H31">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I31">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J31">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="K31">
+        <v>0.004689265245076514</v>
       </c>
       <c r="L31">
         <v>0.01079278087007651</v>
       </c>
+      <c r="M31">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N31">
         <v>0.01079278087007651</v>
       </c>
+      <c r="O31">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P31">
         <v>0.01079278087007651</v>
       </c>
+      <c r="Q31">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R31">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S31">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T31">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U31">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V31">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W31">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X31">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y31">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z31">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA31">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -5195,15 +7100,18 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:27">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -5213,7 +7121,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -5223,7 +7131,7 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -5233,145 +7141,145 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="1:27">
       <c r="B35" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U35" s="1"/>
       <c r="V35" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W35" s="1"/>
       <c r="X35" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="1:27">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -5381,41 +7289,80 @@
       <c r="B37">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C37">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D37">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E37">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F37">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G37">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H37">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I37">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J37">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K37">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="L37">
         <v>0.001440812104817723</v>
       </c>
+      <c r="M37">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N37">
         <v>0.001440812104817723</v>
       </c>
+      <c r="O37">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P37">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q37">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R37">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S37">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T37">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U37">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V37">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W37">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X37">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y37">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z37">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA37">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -5425,41 +7372,80 @@
       <c r="B38">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C38">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D38">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E38">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F38">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G38">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H38">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="I38">
+        <v>-1.620298746729532E-06</v>
       </c>
       <c r="J38">
         <v>0.01079278087007651</v>
       </c>
+      <c r="K38">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="L38">
         <v>0.001440812104817723</v>
       </c>
+      <c r="M38">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N38">
         <v>0.001440812104817723</v>
       </c>
+      <c r="O38">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P38">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q38">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R38">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S38">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T38">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U38">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V38">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W38">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X38">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y38">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z38">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA38">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -5469,41 +7455,80 @@
       <c r="B39">
         <v>0.006113816255208349</v>
       </c>
+      <c r="C39">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D39">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E39">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F39">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G39">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H39">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I39">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J39">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K39">
+        <v>0.004689265245076514</v>
+      </c>
       <c r="L39">
         <v>0.001440812104817723</v>
       </c>
+      <c r="M39">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N39">
         <v>0.001440812104817723</v>
       </c>
+      <c r="O39">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P39">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q39">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R39">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S39">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T39">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U39">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V39">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W39">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X39">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y39">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z39">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA39">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -5513,41 +7538,80 @@
       <c r="B40">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C40">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D40">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E40">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F40">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G40">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H40">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I40">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J40">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K40">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="L40">
         <v>0.001440812104817723</v>
       </c>
+      <c r="M40">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N40">
         <v>0.001440812104817723</v>
       </c>
+      <c r="O40">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P40">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q40">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R40">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S40">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T40">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U40">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V40">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W40">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X40">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y40">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z40">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA40">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="41" spans="1:27">
@@ -5557,41 +7621,80 @@
       <c r="B41">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C41">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D41">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E41">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F41">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G41">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H41">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I41">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J41">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K41">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="L41">
         <v>0.001440812104817723</v>
       </c>
+      <c r="M41">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N41">
         <v>0.001440812104817723</v>
       </c>
+      <c r="O41">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P41">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q41">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R41">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S41">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T41">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U41">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V41">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W41">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X41">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y41">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z41">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA41">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="42" spans="1:27">
@@ -5601,41 +7704,80 @@
       <c r="B42">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C42">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D42">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E42">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F42">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G42">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H42">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I42">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J42">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K42">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="L42">
         <v>0.001440812104817723</v>
       </c>
+      <c r="M42">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N42">
         <v>0.001440812104817723</v>
       </c>
+      <c r="O42">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P42">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q42">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R42">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S42">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T42">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U42">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V42">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W42">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X42">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y42">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z42">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA42">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="43" spans="1:27">
@@ -5645,41 +7787,80 @@
       <c r="B43">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C43">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D43">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E43">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F43">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G43">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H43">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I43">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J43">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K43">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="L43">
         <v>0.001440812104817723</v>
       </c>
+      <c r="M43">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N43">
         <v>0.001440812104817723</v>
       </c>
+      <c r="O43">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P43">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q43">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R43">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S43">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T43">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U43">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V43">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W43">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X43">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y43">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z43">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA43">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="44" spans="1:27">
@@ -5689,41 +7870,80 @@
       <c r="B44">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C44">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D44">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E44">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F44">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G44">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H44">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I44">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J44">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K44">
+        <v>0.004689265245076514</v>
+      </c>
       <c r="L44">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="M44">
+        <v>0.004689265245076514</v>
       </c>
       <c r="N44">
         <v>0.01079278087007651</v>
       </c>
+      <c r="O44">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P44">
         <v>0.01079278087007651</v>
       </c>
+      <c r="Q44">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R44">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S44">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T44">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U44">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V44">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W44">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X44">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y44">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z44">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA44">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="45" spans="1:27">
@@ -5733,41 +7953,80 @@
       <c r="B45">
         <v>0.006113816255208349</v>
       </c>
+      <c r="C45">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D45">
         <v>0.006113816255208349</v>
       </c>
+      <c r="E45">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F45">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G45">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H45">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I45">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J45">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K45">
+        <v>0.004689265245076514</v>
+      </c>
       <c r="L45">
         <v>0.001440812104817723</v>
       </c>
+      <c r="M45">
+        <v>0.004689265245076514</v>
+      </c>
       <c r="N45">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="O45">
+        <v>0.004689265245076514</v>
       </c>
       <c r="P45">
         <v>0.01079278087007651</v>
       </c>
+      <c r="Q45">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R45">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S45">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T45">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U45">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V45">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W45">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X45">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y45">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z45">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA45">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="46" spans="1:27">
@@ -5777,41 +8036,80 @@
       <c r="B46">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C46">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D46">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E46">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F46">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G46">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H46">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I46">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J46">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K46">
+        <v>0.004689265245076514</v>
+      </c>
       <c r="L46">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="M46">
+        <v>0.004689265245076514</v>
       </c>
       <c r="N46">
         <v>0.01079278087007651</v>
       </c>
+      <c r="O46">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P46">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q46">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R46">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S46">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T46">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U46">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V46">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W46">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X46">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y46">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z46">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA46">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="47" spans="1:27">
@@ -5821,41 +8119,80 @@
       <c r="B47">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C47">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D47">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E47">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F47">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G47">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H47">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I47">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J47">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="K47">
+        <v>0.004689265245076514</v>
       </c>
       <c r="L47">
         <v>0.01079278087007651</v>
       </c>
+      <c r="M47">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N47">
         <v>0.01079278087007651</v>
       </c>
+      <c r="O47">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P47">
         <v>0.01079278087007651</v>
       </c>
+      <c r="Q47">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R47">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S47">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T47">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U47">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V47">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W47">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X47">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y47">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z47">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA47">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="49" spans="1:27">
@@ -5863,15 +8200,18 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:27">
       <c r="A50" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -5881,7 +8221,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -5891,7 +8231,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
@@ -5901,145 +8241,145 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA50" s="1"/>
     </row>
     <row r="51" spans="1:27">
       <c r="B51" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O51" s="1"/>
       <c r="P51" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S51" s="1"/>
       <c r="T51" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U51" s="1"/>
       <c r="V51" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W51" s="1"/>
       <c r="X51" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA51" s="1"/>
     </row>
     <row r="52" spans="1:27">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:27">
@@ -6049,41 +8389,80 @@
       <c r="B53">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C53">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D53">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E53">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F53">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G53">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H53">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I53">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J53">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K53">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="L53">
         <v>0.001440812104817723</v>
       </c>
+      <c r="M53">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N53">
         <v>0.001440812104817723</v>
       </c>
+      <c r="O53">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P53">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q53">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R53">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S53">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T53">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U53">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V53">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W53">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X53">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y53">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z53">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA53">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="54" spans="1:27">
@@ -6093,41 +8472,80 @@
       <c r="B54">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C54">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D54">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E54">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F54">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G54">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H54">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I54">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J54">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K54">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="L54">
         <v>0.001440812104817723</v>
       </c>
+      <c r="M54">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N54">
         <v>0.001440812104817723</v>
       </c>
+      <c r="O54">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P54">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q54">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R54">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S54">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T54">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U54">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V54">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W54">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X54">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y54">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z54">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA54">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="55" spans="1:27">
@@ -6137,41 +8555,80 @@
       <c r="B55">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C55">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D55">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E55">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F55">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G55">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H55">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I55">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J55">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K55">
+        <v>0.004689265245076514</v>
+      </c>
       <c r="L55">
         <v>0.001440812104817723</v>
       </c>
+      <c r="M55">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N55">
         <v>0.001440812104817723</v>
       </c>
+      <c r="O55">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P55">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q55">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R55">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S55">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T55">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U55">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V55">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W55">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X55">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y55">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z55">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA55">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="56" spans="1:27">
@@ -6181,41 +8638,80 @@
       <c r="B56">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C56">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D56">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E56">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F56">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G56">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H56">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I56">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J56">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K56">
+        <v>0.004689265245076514</v>
+      </c>
       <c r="L56">
         <v>0.001440812104817723</v>
       </c>
+      <c r="M56">
+        <v>0.004689265245076514</v>
+      </c>
       <c r="N56">
         <v>0.001440812104817723</v>
       </c>
+      <c r="O56">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P56">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q56">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R56">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S56">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T56">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U56">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V56">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W56">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X56">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y56">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z56">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA56">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="57" spans="1:27">
@@ -6225,41 +8721,80 @@
       <c r="B57">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C57">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D57">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E57">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F57">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G57">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H57">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="I57">
+        <v>-1.620298746729532E-06</v>
       </c>
       <c r="J57">
         <v>0.01079278087007651</v>
       </c>
+      <c r="K57">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="L57">
         <v>0.01079278087007651</v>
       </c>
+      <c r="M57">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N57">
         <v>0.001440812104817723</v>
       </c>
+      <c r="O57">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P57">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q57">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R57">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S57">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T57">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U57">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V57">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W57">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X57">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y57">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z57">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA57">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="58" spans="1:27">
@@ -6269,41 +8804,80 @@
       <c r="B58">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C58">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D58">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E58">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F58">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G58">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H58">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="I58">
+        <v>-1.620298746729532E-06</v>
       </c>
       <c r="J58">
         <v>0.01079278087007651</v>
       </c>
+      <c r="K58">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="L58">
         <v>0.001440812104817723</v>
       </c>
+      <c r="M58">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N58">
         <v>0.001440812104817723</v>
       </c>
+      <c r="O58">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P58">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q58">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R58">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S58">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T58">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U58">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V58">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W58">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X58">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y58">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z58">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA58">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="59" spans="1:27">
@@ -6313,41 +8887,80 @@
       <c r="B59">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C59">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D59">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E59">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F59">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G59">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H59">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="I59">
+        <v>-1.620298746729532E-06</v>
       </c>
       <c r="J59">
         <v>0.01079278087007651</v>
       </c>
+      <c r="K59">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="L59">
         <v>0.01079278087007651</v>
       </c>
+      <c r="M59">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N59">
         <v>0.01079278087007651</v>
       </c>
+      <c r="O59">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P59">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q59">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R59">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S59">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T59">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U59">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V59">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W59">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X59">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y59">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z59">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA59">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="60" spans="1:27">
@@ -6357,41 +8970,80 @@
       <c r="B60">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C60">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D60">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E60">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F60">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G60">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H60">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I60">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J60">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K60">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="L60">
         <v>0.001440812104817723</v>
       </c>
+      <c r="M60">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N60">
         <v>0.001440812104817723</v>
       </c>
+      <c r="O60">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P60">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Q60">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R60">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S60">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T60">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U60">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V60">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W60">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X60">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y60">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z60">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA60">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="61" spans="1:27">
@@ -6401,41 +9053,80 @@
       <c r="B61">
         <v>0.01079278087007651</v>
       </c>
+      <c r="C61">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D61">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E61">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F61">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G61">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H61">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I61">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J61">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K61">
+        <v>0.004689265245076514</v>
+      </c>
       <c r="L61">
         <v>0.001440812104817723</v>
       </c>
+      <c r="M61">
+        <v>0.004689265245076514</v>
+      </c>
       <c r="N61">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="O61">
+        <v>0.004689265245076514</v>
       </c>
       <c r="P61">
         <v>0.01079278087007651</v>
       </c>
+      <c r="Q61">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R61">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S61">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T61">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U61">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V61">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W61">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X61">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y61">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z61">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA61">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="62" spans="1:27">
@@ -6445,41 +9136,80 @@
       <c r="B62">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C62">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D62">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E62">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F62">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G62">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H62">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I62">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J62">
         <v>0.001440812104817723</v>
       </c>
+      <c r="K62">
+        <v>0.004689265245076514</v>
+      </c>
       <c r="L62">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="M62">
+        <v>0.004689265245076514</v>
       </c>
       <c r="N62">
         <v>0.01079278087007651</v>
       </c>
+      <c r="O62">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P62">
         <v>0.01079278087007651</v>
       </c>
+      <c r="Q62">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R62">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S62">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T62">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U62">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V62">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W62">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X62">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y62">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z62">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA62">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
     <row r="63" spans="1:27">
@@ -6489,41 +9219,80 @@
       <c r="B63">
         <v>0.001440812104817723</v>
       </c>
+      <c r="C63">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="D63">
         <v>0.001440812104817723</v>
       </c>
+      <c r="E63">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="F63">
         <v>0.001440812104817723</v>
       </c>
+      <c r="G63">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="H63">
         <v>0.001440812104817723</v>
       </c>
+      <c r="I63">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="J63">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="K63">
+        <v>0.004689265245076514</v>
       </c>
       <c r="L63">
         <v>0.01079278087007651</v>
       </c>
+      <c r="M63">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="N63">
         <v>0.01079278087007651</v>
       </c>
+      <c r="O63">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="P63">
         <v>0.01079278087007651</v>
       </c>
+      <c r="Q63">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="R63">
         <v>0.001440812104817723</v>
       </c>
+      <c r="S63">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="T63">
         <v>0.001440812104817723</v>
       </c>
+      <c r="U63">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="V63">
         <v>0.001440812104817723</v>
       </c>
+      <c r="W63">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="X63">
         <v>0.001440812104817723</v>
       </c>
+      <c r="Y63">
+        <v>-1.620298746729532E-06</v>
+      </c>
       <c r="Z63">
         <v>0.001440812104817723</v>
+      </c>
+      <c r="AA63">
+        <v>-1.620298746729532E-06</v>
       </c>
     </row>
   </sheetData>
